--- a/Entity/wwwroot/Uploads/employee (2).xlsx
+++ b/Entity/wwwroot/Uploads/employee (2).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ASP\20231112_BuiVanTuan_L1\Entity\Entity\wwwroot\Uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -545,7 +545,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>

--- a/Entity/wwwroot/Uploads/employee (2).xlsx
+++ b/Entity/wwwroot/Uploads/employee (2).xlsx
@@ -414,7 +414,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -542,7 +542,7 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>198726354782</v>

--- a/Entity/wwwroot/Uploads/employee (2).xlsx
+++ b/Entity/wwwroot/Uploads/employee (2).xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
   </bookViews>
   <sheets>
-    <sheet name="User_Wise_8461fff74803454597004" sheetId="1" r:id="rId1"/>
+    <sheet name="User_Wise_b0a365662b134dfdb1427" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -33,49 +33,31 @@
     <t>Age</t>
   </si>
   <si>
+    <t>JobName</t>
+  </si>
+  <si>
+    <t>NationName</t>
+  </si>
+  <si>
     <t>IdentityCardNumber</t>
   </si>
   <si>
     <t>PhoneNumber</t>
   </si>
   <si>
-    <t>Pham Hai Anh</t>
+    <t>CityName</t>
+  </si>
+  <si>
+    <t>DistrictName</t>
+  </si>
+  <si>
+    <t>WardName</t>
   </si>
   <si>
     <t>10/10/2001</t>
   </si>
   <si>
-    <t>0987654321</t>
-  </si>
-  <si>
-    <t>Bui Van Tuan</t>
-  </si>
-  <si>
-    <t>Anh</t>
-  </si>
-  <si>
-    <t>111928374659</t>
-  </si>
-  <si>
-    <t>JobId</t>
-  </si>
-  <si>
-    <t>NationId</t>
-  </si>
-  <si>
-    <t>CityId</t>
-  </si>
-  <si>
-    <t>DistrictId</t>
-  </si>
-  <si>
-    <t>WardId</t>
-  </si>
-  <si>
-    <t>Tran Hai Anh</t>
-  </si>
-  <si>
-    <t>Pham Minh Hau</t>
+    <t>ak</t>
   </si>
 </sst>
 </file>
@@ -108,9 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -129,20 +112,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K6">
-  <autoFilter ref="A1:K6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K3">
+  <autoFilter ref="A1:K3"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Name"/>
     <tableColumn id="3" name="DateOfBirth"/>
     <tableColumn id="4" name="Age"/>
-    <tableColumn id="5" name="JobId"/>
-    <tableColumn id="6" name="NationId"/>
+    <tableColumn id="5" name="JobName"/>
+    <tableColumn id="6" name="NationName"/>
     <tableColumn id="7" name="IdentityCardNumber"/>
     <tableColumn id="8" name="PhoneNumber"/>
-    <tableColumn id="9" name="CityId"/>
-    <tableColumn id="10" name="DistrictId"/>
-    <tableColumn id="11" name="WardId"/>
+    <tableColumn id="9" name="CityName"/>
+    <tableColumn id="10" name="DistrictName"/>
+    <tableColumn id="11" name="WardName"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -411,16 +394,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -437,197 +419,77 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>20</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>123432243232</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
       <c r="I2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>111628374651</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
       <c r="I3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5">
         <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>198726354782</v>
-      </c>
-      <c r="H5">
-        <v>987654321</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>23</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Entity/wwwroot/Uploads/employee (2).xlsx
+++ b/Entity/wwwroot/Uploads/employee (2).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>10/10/2001</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>21/10/2002</t>
   </si>
 </sst>
 </file>
@@ -109,8 +118,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K3">
-  <autoFilter ref="A1:K3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K4">
+  <autoFilter ref="A1:K4"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Name"/>
@@ -391,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -441,6 +450,9 @@
       <c r="A2">
         <v>20</v>
       </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
@@ -464,6 +476,9 @@
       <c r="A3">
         <v>10</v>
       </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
@@ -480,6 +495,35 @@
         <v>12</v>
       </c>
       <c r="K3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>1120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>12</v>
+      </c>
+      <c r="K4">
         <v>12</v>
       </c>
     </row>
